--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Col1a1-Itga11.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Col1a1-Itga11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>48.4537623346414</v>
+        <v>89.95998966666667</v>
       </c>
       <c r="H2">
-        <v>48.4537623346414</v>
+        <v>269.879969</v>
       </c>
       <c r="I2">
-        <v>0.01237237634900862</v>
+        <v>0.02265176537473209</v>
       </c>
       <c r="J2">
-        <v>0.01237237634900862</v>
+        <v>0.0226517653747321</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>32.5328191503054</v>
+        <v>0.502777</v>
       </c>
       <c r="N2">
-        <v>32.5328191503054</v>
+        <v>1.508331</v>
       </c>
       <c r="O2">
-        <v>0.9956680380561138</v>
+        <v>0.01505293423242437</v>
       </c>
       <c r="P2">
-        <v>0.9956680380561138</v>
+        <v>0.01505293423242436</v>
       </c>
       <c r="Q2">
-        <v>1576.337487184768</v>
+        <v>45.22981372463767</v>
       </c>
       <c r="R2">
-        <v>1576.337487184768</v>
+        <v>407.068323521739</v>
       </c>
       <c r="S2">
-        <v>0.01231877968550927</v>
+        <v>0.0003409755344341497</v>
       </c>
       <c r="T2">
-        <v>0.01231877968550927</v>
+        <v>0.0003409755344341497</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,433 +587,1177 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>48.4537623346414</v>
+        <v>89.95998966666667</v>
       </c>
       <c r="H3">
-        <v>48.4537623346414</v>
+        <v>269.879969</v>
       </c>
       <c r="I3">
-        <v>0.01237237634900862</v>
+        <v>0.02265176537473209</v>
       </c>
       <c r="J3">
-        <v>0.01237237634900862</v>
+        <v>0.0226517653747321</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.141544098132948</v>
+        <v>32.710306</v>
       </c>
       <c r="N3">
-        <v>0.141544098132948</v>
+        <v>98.13091799999999</v>
       </c>
       <c r="O3">
-        <v>0.004331961943886175</v>
+        <v>0.9793329546508215</v>
       </c>
       <c r="P3">
-        <v>0.004331961943886175</v>
+        <v>0.9793329546508215</v>
       </c>
       <c r="Q3">
-        <v>6.858344090805021</v>
+        <v>2942.618789753505</v>
       </c>
       <c r="R3">
-        <v>6.858344090805021</v>
+        <v>26483.56910778154</v>
       </c>
       <c r="S3">
-        <v>5.359666349934271E-05</v>
+        <v>0.02218362031249355</v>
       </c>
       <c r="T3">
-        <v>5.359666349934271E-05</v>
+        <v>0.02218362031249356</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3844.36250207129</v>
+        <v>89.95998966666667</v>
       </c>
       <c r="H4">
-        <v>3844.36250207129</v>
+        <v>269.879969</v>
       </c>
       <c r="I4">
-        <v>0.981634808235257</v>
+        <v>0.02265176537473209</v>
       </c>
       <c r="J4">
-        <v>0.981634808235257</v>
+        <v>0.0226517653747321</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>32.5328191503054</v>
+        <v>0.1531426666666667</v>
       </c>
       <c r="N4">
-        <v>32.5328191503054</v>
+        <v>0.459428</v>
       </c>
       <c r="O4">
-        <v>0.9956680380561138</v>
+        <v>0.004585027734982747</v>
       </c>
       <c r="P4">
-        <v>0.9956680380561138</v>
+        <v>0.004585027734982747</v>
       </c>
       <c r="Q4">
-        <v>125067.9500281008</v>
+        <v>13.77671271085911</v>
       </c>
       <c r="R4">
-        <v>125067.9500281008</v>
+        <v>123.990414397732</v>
       </c>
       <c r="S4">
-        <v>0.9773824036031878</v>
+        <v>0.0001038589724894685</v>
       </c>
       <c r="T4">
-        <v>0.9773824036031878</v>
+        <v>0.0001038589724894685</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3844.36250207129</v>
+        <v>89.95998966666667</v>
       </c>
       <c r="H5">
-        <v>3844.36250207129</v>
+        <v>269.879969</v>
       </c>
       <c r="I5">
-        <v>0.981634808235257</v>
+        <v>0.02265176537473209</v>
       </c>
       <c r="J5">
-        <v>0.981634808235257</v>
+        <v>0.0226517653747321</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.141544098132948</v>
+        <v>0.034372</v>
       </c>
       <c r="N5">
-        <v>0.141544098132948</v>
+        <v>0.103116</v>
       </c>
       <c r="O5">
-        <v>0.004331961943886175</v>
+        <v>0.001029083381771422</v>
       </c>
       <c r="P5">
-        <v>0.004331961943886175</v>
+        <v>0.001029083381771422</v>
       </c>
       <c r="Q5">
-        <v>544.1468232518041</v>
+        <v>3.092104764822667</v>
       </c>
       <c r="R5">
-        <v>544.1468232518041</v>
+        <v>27.828942883404</v>
       </c>
       <c r="S5">
-        <v>0.004252404632069137</v>
+        <v>2.331055531492211E-05</v>
       </c>
       <c r="T5">
-        <v>0.004252404632069137</v>
+        <v>2.331055531492211E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.128936447352119</v>
+        <v>3857.568359333333</v>
       </c>
       <c r="H6">
-        <v>0.128936447352119</v>
+        <v>11572.705078</v>
       </c>
       <c r="I6">
-        <v>3.292314517760468E-05</v>
+        <v>0.9713288509301208</v>
       </c>
       <c r="J6">
-        <v>3.292314517760468E-05</v>
+        <v>0.971328850930121</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>32.5328191503054</v>
+        <v>0.502777</v>
       </c>
       <c r="N6">
-        <v>32.5328191503054</v>
+        <v>1.508331</v>
       </c>
       <c r="O6">
-        <v>0.9956680380561138</v>
+        <v>0.01505293423242437</v>
       </c>
       <c r="P6">
-        <v>0.9956680380561138</v>
+        <v>0.01505293423242436</v>
       </c>
       <c r="Q6">
-        <v>4.194666123589362</v>
+        <v>1939.496647000535</v>
       </c>
       <c r="R6">
-        <v>4.194666123589362</v>
+        <v>17455.46982300482</v>
       </c>
       <c r="S6">
-        <v>3.278052336562226E-05</v>
+        <v>0.01462134931110744</v>
       </c>
       <c r="T6">
-        <v>3.278052336562226E-05</v>
+        <v>0.01462134931110744</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.128936447352119</v>
+        <v>3857.568359333333</v>
       </c>
       <c r="H7">
-        <v>0.128936447352119</v>
+        <v>11572.705078</v>
       </c>
       <c r="I7">
-        <v>3.292314517760468E-05</v>
+        <v>0.9713288509301208</v>
       </c>
       <c r="J7">
-        <v>3.292314517760468E-05</v>
+        <v>0.971328850930121</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.141544098132948</v>
+        <v>32.710306</v>
       </c>
       <c r="N7">
-        <v>0.141544098132948</v>
+        <v>98.13091799999999</v>
       </c>
       <c r="O7">
-        <v>0.004331961943886175</v>
+        <v>0.9793329546508215</v>
       </c>
       <c r="P7">
-        <v>0.004331961943886175</v>
+        <v>0.9793329546508215</v>
       </c>
       <c r="Q7">
-        <v>0.01825019315692201</v>
+        <v>126182.2414497113</v>
       </c>
       <c r="R7">
-        <v>0.01825019315692201</v>
+        <v>1135640.173047401</v>
       </c>
       <c r="S7">
-        <v>1.426218119824231E-07</v>
+        <v>0.9512543535189825</v>
       </c>
       <c r="T7">
-        <v>1.426218119824231E-07</v>
+        <v>0.9512543535189827</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>23.3406417224581</v>
+        <v>3857.568359333333</v>
       </c>
       <c r="H8">
-        <v>23.3406417224581</v>
+        <v>11572.705078</v>
       </c>
       <c r="I8">
-        <v>0.005959892270556777</v>
+        <v>0.9713288509301208</v>
       </c>
       <c r="J8">
-        <v>0.005959892270556777</v>
+        <v>0.971328850930121</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>32.5328191503054</v>
+        <v>0.1531426666666667</v>
       </c>
       <c r="N8">
-        <v>32.5328191503054</v>
+        <v>0.459428</v>
       </c>
       <c r="O8">
-        <v>0.9956680380561138</v>
+        <v>0.004585027734982747</v>
       </c>
       <c r="P8">
-        <v>0.9956680380561138</v>
+        <v>0.004585027734982747</v>
       </c>
       <c r="Q8">
-        <v>759.3368760088021</v>
+        <v>590.7583053972648</v>
       </c>
       <c r="R8">
-        <v>759.3368760088021</v>
+        <v>5316.824748575384</v>
       </c>
       <c r="S8">
-        <v>0.005934074244051063</v>
+        <v>0.004453569721303526</v>
       </c>
       <c r="T8">
-        <v>0.005934074244051063</v>
+        <v>0.004453569721303527</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3857.568359333333</v>
+      </c>
+      <c r="H9">
+        <v>11572.705078</v>
+      </c>
+      <c r="I9">
+        <v>0.9713288509301208</v>
+      </c>
+      <c r="J9">
+        <v>0.971328850930121</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.034372</v>
+      </c>
+      <c r="N9">
+        <v>0.103116</v>
+      </c>
+      <c r="O9">
+        <v>0.001029083381771422</v>
+      </c>
+      <c r="P9">
+        <v>0.001029083381771422</v>
+      </c>
+      <c r="Q9">
+        <v>132.5923396470053</v>
+      </c>
+      <c r="R9">
+        <v>1193.331056823048</v>
+      </c>
+      <c r="S9">
+        <v>0.0009995783787273183</v>
+      </c>
+      <c r="T9">
+        <v>0.0009995783787273185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.1342213333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.402664</v>
+      </c>
+      <c r="I10">
+        <v>3.379669297668818E-05</v>
+      </c>
+      <c r="J10">
+        <v>3.379669297668818E-05</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.502777</v>
+      </c>
+      <c r="N10">
+        <v>1.508331</v>
+      </c>
+      <c r="O10">
+        <v>0.01505293423242437</v>
+      </c>
+      <c r="P10">
+        <v>0.01505293423242436</v>
+      </c>
+      <c r="Q10">
+        <v>0.06748339930933334</v>
+      </c>
+      <c r="R10">
+        <v>0.607350593784</v>
+      </c>
+      <c r="S10">
+        <v>5.087393966515256E-07</v>
+      </c>
+      <c r="T10">
+        <v>5.087393966515256E-07</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.1342213333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.402664</v>
+      </c>
+      <c r="I11">
+        <v>3.379669297668818E-05</v>
+      </c>
+      <c r="J11">
+        <v>3.379669297668818E-05</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>32.710306</v>
+      </c>
+      <c r="N11">
+        <v>98.13091799999999</v>
+      </c>
+      <c r="O11">
+        <v>0.9793329546508215</v>
+      </c>
+      <c r="P11">
+        <v>0.9793329546508215</v>
+      </c>
+      <c r="Q11">
+        <v>4.390420885061332</v>
+      </c>
+      <c r="R11">
+        <v>39.513787965552</v>
+      </c>
+      <c r="S11">
+        <v>3.30982151902867E-05</v>
+      </c>
+      <c r="T11">
+        <v>3.309821519028671E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.1342213333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.402664</v>
+      </c>
+      <c r="I12">
+        <v>3.379669297668818E-05</v>
+      </c>
+      <c r="J12">
+        <v>3.379669297668818E-05</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.1531426666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.459428</v>
+      </c>
+      <c r="O12">
+        <v>0.004585027734982747</v>
+      </c>
+      <c r="P12">
+        <v>0.004585027734982747</v>
+      </c>
+      <c r="Q12">
+        <v>0.02055501291022222</v>
+      </c>
+      <c r="R12">
+        <v>0.184995116192</v>
+      </c>
+      <c r="S12">
+        <v>1.549587746488119E-07</v>
+      </c>
+      <c r="T12">
+        <v>1.549587746488119E-07</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.1342213333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.402664</v>
+      </c>
+      <c r="I13">
+        <v>3.379669297668818E-05</v>
+      </c>
+      <c r="J13">
+        <v>3.379669297668818E-05</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.034372</v>
+      </c>
+      <c r="N13">
+        <v>0.103116</v>
+      </c>
+      <c r="O13">
+        <v>0.001029083381771422</v>
+      </c>
+      <c r="P13">
+        <v>0.001029083381771422</v>
+      </c>
+      <c r="Q13">
+        <v>0.004613455669333333</v>
+      </c>
+      <c r="R13">
+        <v>0.041521101024</v>
+      </c>
+      <c r="S13">
+        <v>3.477961510114074E-08</v>
+      </c>
+      <c r="T13">
+        <v>3.477961510114075E-08</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.253661</v>
+      </c>
+      <c r="H14">
+        <v>0.760983</v>
+      </c>
+      <c r="I14">
+        <v>6.387138858074995E-05</v>
+      </c>
+      <c r="J14">
+        <v>6.387138858074996E-05</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.502777</v>
+      </c>
+      <c r="N14">
+        <v>1.508331</v>
+      </c>
+      <c r="O14">
+        <v>0.01505293423242437</v>
+      </c>
+      <c r="P14">
+        <v>0.01505293423242436</v>
+      </c>
+      <c r="Q14">
+        <v>0.127534916597</v>
+      </c>
+      <c r="R14">
+        <v>1.147814249373</v>
+      </c>
+      <c r="S14">
+        <v>9.614518116396497E-07</v>
+      </c>
+      <c r="T14">
+        <v>9.614518116396497E-07</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.253661</v>
+      </c>
+      <c r="H15">
+        <v>0.760983</v>
+      </c>
+      <c r="I15">
+        <v>6.387138858074995E-05</v>
+      </c>
+      <c r="J15">
+        <v>6.387138858074996E-05</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>32.710306</v>
+      </c>
+      <c r="N15">
+        <v>98.13091799999999</v>
+      </c>
+      <c r="O15">
+        <v>0.9793329546508215</v>
+      </c>
+      <c r="P15">
+        <v>0.9793329546508215</v>
+      </c>
+      <c r="Q15">
+        <v>8.297328930265998</v>
+      </c>
+      <c r="R15">
+        <v>74.67596037239399</v>
+      </c>
+      <c r="S15">
+        <v>6.255135569643658E-05</v>
+      </c>
+      <c r="T15">
+        <v>6.25513556964366E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.253661</v>
+      </c>
+      <c r="H16">
+        <v>0.760983</v>
+      </c>
+      <c r="I16">
+        <v>6.387138858074995E-05</v>
+      </c>
+      <c r="J16">
+        <v>6.387138858074996E-05</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.1531426666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.459428</v>
+      </c>
+      <c r="O16">
+        <v>0.004585027734982747</v>
+      </c>
+      <c r="P16">
+        <v>0.004585027734982747</v>
+      </c>
+      <c r="Q16">
+        <v>0.03884632196933333</v>
+      </c>
+      <c r="R16">
+        <v>0.349616897724</v>
+      </c>
+      <c r="S16">
+        <v>2.928520881145988E-07</v>
+      </c>
+      <c r="T16">
+        <v>2.928520881145989E-07</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.253661</v>
+      </c>
+      <c r="H17">
+        <v>0.760983</v>
+      </c>
+      <c r="I17">
+        <v>6.387138858074995E-05</v>
+      </c>
+      <c r="J17">
+        <v>6.387138858074996E-05</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.034372</v>
+      </c>
+      <c r="N17">
+        <v>0.103116</v>
+      </c>
+      <c r="O17">
+        <v>0.001029083381771422</v>
+      </c>
+      <c r="P17">
+        <v>0.001029083381771422</v>
+      </c>
+      <c r="Q17">
+        <v>0.008718835891999999</v>
+      </c>
+      <c r="R17">
+        <v>0.07846952302799999</v>
+      </c>
+      <c r="S17">
+        <v>6.572898455911475E-08</v>
+      </c>
+      <c r="T17">
+        <v>6.572898455911476E-08</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>23.51770233333334</v>
+      </c>
+      <c r="H18">
+        <v>70.55310700000001</v>
+      </c>
+      <c r="I18">
+        <v>0.005921715613589568</v>
+      </c>
+      <c r="J18">
+        <v>0.005921715613589569</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.502777</v>
+      </c>
+      <c r="N18">
+        <v>1.508331</v>
+      </c>
+      <c r="O18">
+        <v>0.01505293423242437</v>
+      </c>
+      <c r="P18">
+        <v>0.01505293423242436</v>
+      </c>
+      <c r="Q18">
+        <v>11.82415982604634</v>
+      </c>
+      <c r="R18">
+        <v>106.417438434417</v>
+      </c>
+      <c r="S18">
+        <v>8.913919567448428E-05</v>
+      </c>
+      <c r="T18">
+        <v>8.913919567448428E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>23.51770233333334</v>
+      </c>
+      <c r="H19">
+        <v>70.55310700000001</v>
+      </c>
+      <c r="I19">
+        <v>0.005921715613589568</v>
+      </c>
+      <c r="J19">
+        <v>0.005921715613589569</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>32.710306</v>
+      </c>
+      <c r="N19">
+        <v>98.13091799999999</v>
+      </c>
+      <c r="O19">
+        <v>0.9793329546508215</v>
+      </c>
+      <c r="P19">
+        <v>0.9793329546508215</v>
+      </c>
+      <c r="Q19">
+        <v>769.2712397402473</v>
+      </c>
+      <c r="R19">
+        <v>6923.441157662227</v>
+      </c>
+      <c r="S19">
+        <v>0.005799331248458574</v>
+      </c>
+      <c r="T19">
+        <v>0.005799331248458575</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
         <v>22</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>23.3406417224581</v>
-      </c>
-      <c r="H9">
-        <v>23.3406417224581</v>
-      </c>
-      <c r="I9">
-        <v>0.005959892270556777</v>
-      </c>
-      <c r="J9">
-        <v>0.005959892270556777</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.141544098132948</v>
-      </c>
-      <c r="N9">
-        <v>0.141544098132948</v>
-      </c>
-      <c r="O9">
-        <v>0.004331961943886175</v>
-      </c>
-      <c r="P9">
-        <v>0.004331961943886175</v>
-      </c>
-      <c r="Q9">
-        <v>3.303730082449589</v>
-      </c>
-      <c r="R9">
-        <v>3.303730082449589</v>
-      </c>
-      <c r="S9">
-        <v>2.581802650571333E-05</v>
-      </c>
-      <c r="T9">
-        <v>2.581802650571333E-05</v>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>23.51770233333334</v>
+      </c>
+      <c r="H20">
+        <v>70.55310700000001</v>
+      </c>
+      <c r="I20">
+        <v>0.005921715613589568</v>
+      </c>
+      <c r="J20">
+        <v>0.005921715613589569</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.1531426666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.459428</v>
+      </c>
+      <c r="O20">
+        <v>0.004585027734982747</v>
+      </c>
+      <c r="P20">
+        <v>0.004585027734982747</v>
+      </c>
+      <c r="Q20">
+        <v>3.601563649199556</v>
+      </c>
+      <c r="R20">
+        <v>32.414072842796</v>
+      </c>
+      <c r="S20">
+        <v>2.715123032698855E-05</v>
+      </c>
+      <c r="T20">
+        <v>2.715123032698855E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>23.51770233333334</v>
+      </c>
+      <c r="H21">
+        <v>70.55310700000001</v>
+      </c>
+      <c r="I21">
+        <v>0.005921715613589568</v>
+      </c>
+      <c r="J21">
+        <v>0.005921715613589569</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.034372</v>
+      </c>
+      <c r="N21">
+        <v>0.103116</v>
+      </c>
+      <c r="O21">
+        <v>0.001029083381771422</v>
+      </c>
+      <c r="P21">
+        <v>0.001029083381771422</v>
+      </c>
+      <c r="Q21">
+        <v>0.8083504646013334</v>
+      </c>
+      <c r="R21">
+        <v>7.275154181412002</v>
+      </c>
+      <c r="S21">
+        <v>6.093939129521385E-06</v>
+      </c>
+      <c r="T21">
+        <v>6.093939129521385E-06</v>
       </c>
     </row>
   </sheetData>
